--- a/biology/Botanique/Château_d'Azay-le-Ferron/Château_d'Azay-le-Ferron.xlsx
+++ b/biology/Botanique/Château_d'Azay-le-Ferron/Château_d'Azay-le-Ferron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_d%27Azay-le-Ferron</t>
+          <t>Château_d'Azay-le-Ferron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château d'Azay-le-Ferron est un château français de la Renaissance, situé sur le territoire de la commune d'Azay-le-Ferron, dans le département de l'Indre, en région Centre-Val de Loire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_d%27Azay-le-Ferron</t>
+          <t>Château_d'Azay-le-Ferron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été édifié du XVe siècle au XVIIIe siècle.
-L'édifice est classé au titre des monuments historiques, le 25 janvier 1950[1].
+L'édifice est classé au titre des monuments historiques, le 25 janvier 1950.
 Le château appartient aujourd'hui à la ville de Tours, légué en 1952, par les derniers propriétaires, la famille Hersent-Luzarche.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_d%27Azay-le-Ferron</t>
+          <t>Château_d'Azay-le-Ferron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarquablement conservé, il abrite de magnifiques collections de mobilier Renaissance, Régence, Louis XVI et Empire.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_d%27Azay-le-Ferron</t>
+          <t>Château_d'Azay-le-Ferron</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Parc et jardins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De beaux jardins l'entourent, attribués aux architectes paysagistes Denis et Eugène Bühler : roseraie, jardin à la française, jardin paysagé, jardin de topiaires et de buis taillés, aux formes de pièces de jeu d'échecs.
 Les jardins du château d'Azay-le-Ferron est inscrit dans la Liste des jardins portant le label Jardin remarquable.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_d%27Azay-le-Ferron</t>
+          <t>Château_d'Azay-le-Ferron</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Fréquentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2016, elle a reçu 17 883[2] visiteurs.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, elle a reçu 17 883 visiteurs.
 </t>
         </is>
       </c>
